--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/84.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/84.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1762803244498458</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.317356635000086</v>
+        <v>-1.318667758185722</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1690244313561216</v>
+        <v>-0.1674797004759402</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1305609244492228</v>
+        <v>-0.1293330240047686</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1812876979370715</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388020042503885</v>
+        <v>-1.388174807601521</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2370334714306488</v>
+        <v>-0.2354011376650128</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.13420374443604</v>
+        <v>-0.1336080448149493</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.1796203861763733</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.492179873309312</v>
+        <v>-1.491963786191857</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2829359233607273</v>
+        <v>-0.2817167832048186</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1391051258772205</v>
+        <v>-0.1384145231302207</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1654139487539627</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.645870375550725</v>
+        <v>-1.64457677294218</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2925795410011793</v>
+        <v>-0.2921123256120885</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1492057385701269</v>
+        <v>-0.1487297628924907</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1411056193509214</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.740131080299791</v>
+        <v>-1.739087145914791</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2919517203220885</v>
+        <v>-0.2911954154109979</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1660576136353951</v>
+        <v>-0.1663715239749405</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.114715768753083</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.580550744059652</v>
+        <v>-1.579484908953288</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2248099488135611</v>
+        <v>-0.2240171427001977</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1718875856623935</v>
+        <v>-0.1730483238946659</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.09614706235590455</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.420501732382331</v>
+        <v>-1.420733880028785</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1491706974159451</v>
+        <v>-0.1476741481227637</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.152385723312126</v>
+        <v>-0.152817897547035</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08980795672298265</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.150514019555767</v>
+        <v>-1.151023576339494</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.008067269766255693</v>
+        <v>-0.006137086190074392</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.128814706932496</v>
+        <v>-0.1300046461265866</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.09202071845746182</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7785580081082306</v>
+        <v>-0.7799289932655938</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07801132548135756</v>
+        <v>0.08008605381853882</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1156319327196813</v>
+        <v>-0.1169284554244083</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.09477239789787457</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4019970049819681</v>
+        <v>-0.4046601326997856</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1192591440976192</v>
+        <v>0.1228070609585274</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07236194749751115</v>
+        <v>-0.07311971245669277</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.09186571748611068</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06785669100908756</v>
+        <v>0.06450150049617936</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1328302911026156</v>
+        <v>0.1362000820964328</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02823974611037092</v>
+        <v>0.0278338527410983</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.0768642697877471</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6085709009962151</v>
+        <v>0.6049762625963979</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05236558076454626</v>
+        <v>0.0559295581544544</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1806643866569664</v>
+        <v>0.1792554402492395</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.0451040945520804</v>
       </c>
       <c r="E14" t="n">
-        <v>1.173289761645973</v>
+        <v>1.169206007135701</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09369763024995997</v>
+        <v>-0.09098486089705161</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3096435749597499</v>
+        <v>0.3080988440795685</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.006240401994581689</v>
       </c>
       <c r="E15" t="n">
-        <v>1.820415196594708</v>
+        <v>1.816797197425436</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2606745701186424</v>
+        <v>-0.2592481031338246</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4907771411178831</v>
+        <v>0.4895434004810653</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.07707149680228208</v>
       </c>
       <c r="E16" t="n">
-        <v>2.449222868194903</v>
+        <v>2.444584295410086</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4975454721472152</v>
+        <v>-0.4961482061242156</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6089052520090332</v>
+        <v>0.6072685380991245</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1638306321518966</v>
       </c>
       <c r="E17" t="n">
-        <v>3.060803432370466</v>
+        <v>3.055808607851467</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.632804327288997</v>
+        <v>-0.6306989379419067</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7951066450907105</v>
+        <v>0.7937093790677109</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2593345759163458</v>
       </c>
       <c r="E18" t="n">
-        <v>3.663134591890122</v>
+        <v>3.656396469950578</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7564295192424184</v>
+        <v>-0.7537897522940554</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9362903753853998</v>
+        <v>0.9356844554276728</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.359063383952034</v>
       </c>
       <c r="E19" t="n">
-        <v>4.197037677533161</v>
+        <v>4.190368177853889</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9142490374849215</v>
+        <v>-0.9118998201066494</v>
       </c>
       <c r="G19" t="n">
-        <v>1.088897521943359</v>
+        <v>1.088135376839904</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4618890903717978</v>
       </c>
       <c r="E20" t="n">
-        <v>4.740463196825106</v>
+        <v>4.733600970797835</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.129880619935045</v>
+        <v>-1.127001405099773</v>
       </c>
       <c r="G20" t="n">
-        <v>1.248022323179134</v>
+        <v>1.247266018268044</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5641612784846889</v>
       </c>
       <c r="E21" t="n">
-        <v>5.201286495373891</v>
+        <v>5.193427056500529</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.286799288505458</v>
+        <v>-1.283569662128368</v>
       </c>
       <c r="G21" t="n">
-        <v>1.424328970348723</v>
+        <v>1.423390159426269</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6602431300950437</v>
       </c>
       <c r="E22" t="n">
-        <v>5.604653981449237</v>
+        <v>5.597247157484057</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.493858928613857</v>
+        <v>-1.490708144833676</v>
       </c>
       <c r="G22" t="n">
-        <v>1.53944646207642</v>
+        <v>1.538931065100329</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7428377620977836</v>
       </c>
       <c r="E23" t="n">
-        <v>5.877110635597528</v>
+        <v>5.869073070857075</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.674500458565354</v>
+        <v>-1.670647391653446</v>
       </c>
       <c r="G23" t="n">
-        <v>1.700938001267558</v>
+        <v>1.699948088661922</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8069573108969771</v>
       </c>
       <c r="E24" t="n">
-        <v>6.181310195290264</v>
+        <v>6.173701884688539</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.846398490524444</v>
+        <v>-1.843225075998854</v>
       </c>
       <c r="G24" t="n">
-        <v>1.813585091625437</v>
+        <v>1.813570491144528</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.849884260085864</v>
       </c>
       <c r="E25" t="n">
-        <v>6.392403948273844</v>
+        <v>6.385706707680845</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.981705527253226</v>
+        <v>-1.978564963809681</v>
       </c>
       <c r="G25" t="n">
-        <v>1.915464327312864</v>
+        <v>1.916176830781228</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8708666791522313</v>
       </c>
       <c r="E26" t="n">
-        <v>6.491275484894</v>
+        <v>6.485296587961728</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.087632746272697</v>
+        <v>-2.085200306153244</v>
       </c>
       <c r="G26" t="n">
-        <v>1.979700603120483</v>
+        <v>1.98016051826912</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.871980250754858</v>
       </c>
       <c r="E27" t="n">
-        <v>6.544612501702985</v>
+        <v>6.538694926790532</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.175153139010083</v>
+        <v>-2.173254346467856</v>
       </c>
       <c r="G27" t="n">
-        <v>2.06147935674037</v>
+        <v>2.062276542998007</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8562527434092411</v>
       </c>
       <c r="E28" t="n">
-        <v>6.654371616937047</v>
+        <v>6.649115443809775</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.233871163058113</v>
+        <v>-2.232593620978567</v>
       </c>
       <c r="G28" t="n">
-        <v>2.09181477592518</v>
+        <v>2.09226447073718</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8276203805149119</v>
       </c>
       <c r="E29" t="n">
-        <v>6.591171975273972</v>
+        <v>6.586098308158064</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.294174069308824</v>
+        <v>-2.292989970307097</v>
       </c>
       <c r="G29" t="n">
-        <v>2.137105467705168</v>
+        <v>2.138196123629077</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7889565736063109</v>
       </c>
       <c r="E30" t="n">
-        <v>6.558956014148072</v>
+        <v>6.552688027693801</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.328985265916314</v>
+        <v>-2.328210710404087</v>
       </c>
       <c r="G30" t="n">
-        <v>2.1214260112569</v>
+        <v>2.122640771268536</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7431825808664797</v>
       </c>
       <c r="E31" t="n">
-        <v>6.469507627906641</v>
+        <v>6.463622174052189</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310198097106547</v>
+        <v>-2.309895137127683</v>
       </c>
       <c r="G31" t="n">
-        <v>2.10317395007245</v>
+        <v>2.105139174802813</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6925329649352473</v>
       </c>
       <c r="E32" t="n">
-        <v>6.293402467373598</v>
+        <v>6.288336100498144</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.316114211970909</v>
+        <v>-2.315581294417727</v>
       </c>
       <c r="G32" t="n">
-        <v>2.040926259764649</v>
+        <v>2.042433029394466</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6401153959823627</v>
       </c>
       <c r="E33" t="n">
-        <v>6.111109623031283</v>
+        <v>6.104767174124375</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.337549908017585</v>
+        <v>-2.338210579778721</v>
       </c>
       <c r="G33" t="n">
-        <v>1.975939519238302</v>
+        <v>1.976831608621848</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.5881709512781909</v>
       </c>
       <c r="E34" t="n">
-        <v>5.871343445638439</v>
+        <v>5.865650718131985</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.382284321474936</v>
+        <v>-2.381644090387073</v>
       </c>
       <c r="G34" t="n">
-        <v>1.89199843439578</v>
+        <v>1.893324158062325</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5382769178701345</v>
       </c>
       <c r="E35" t="n">
-        <v>5.646371935550771</v>
+        <v>5.640671907803864</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.369800180273621</v>
+        <v>-2.369308144066985</v>
       </c>
       <c r="G35" t="n">
-        <v>1.823504658355071</v>
+        <v>1.824818701636888</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.4908471693731401</v>
       </c>
       <c r="E36" t="n">
-        <v>5.456060507093186</v>
+        <v>5.450839375120097</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.33133229322245</v>
+        <v>-2.330227766841678</v>
       </c>
       <c r="G36" t="n">
-        <v>1.735257891692458</v>
+        <v>1.737018709690094</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.4454038652143841</v>
       </c>
       <c r="E37" t="n">
-        <v>5.093469244100738</v>
+        <v>5.088690506699194</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.270665104973057</v>
+        <v>-2.270135107516057</v>
       </c>
       <c r="G37" t="n">
-        <v>1.648752962402299</v>
+        <v>1.649937061404026</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4017019686416786</v>
       </c>
       <c r="E38" t="n">
-        <v>4.819935074461357</v>
+        <v>4.814055460799268</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.166504544143585</v>
+        <v>-2.165135019034313</v>
       </c>
       <c r="G38" t="n">
-        <v>1.55016467511178</v>
+        <v>1.550262498333871</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3587019699085469</v>
       </c>
       <c r="E39" t="n">
-        <v>4.526307722994891</v>
+        <v>4.520417888996165</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.148835042147408</v>
+        <v>-2.147340682926363</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438565899283174</v>
+        <v>1.438352732261901</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.316351385758523</v>
       </c>
       <c r="E40" t="n">
-        <v>4.25736978474569</v>
+        <v>4.251926725462782</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.119707812757825</v>
+        <v>-2.118374788850825</v>
       </c>
       <c r="G40" t="n">
-        <v>1.381402096427917</v>
+        <v>1.382470851630462</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.2732200060987134</v>
       </c>
       <c r="E41" t="n">
-        <v>3.961673545134406</v>
+        <v>3.957382463795225</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.030021438677577</v>
+        <v>-2.028641693231668</v>
       </c>
       <c r="G41" t="n">
-        <v>1.261275179700313</v>
+        <v>1.26221837076704</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2284542019907987</v>
       </c>
       <c r="E42" t="n">
-        <v>3.706268792639838</v>
+        <v>3.702735476259839</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.934981798272011</v>
+        <v>-1.93387070167483</v>
       </c>
       <c r="G42" t="n">
-        <v>1.156486068167704</v>
+        <v>1.157348956589431</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1803971876473568</v>
       </c>
       <c r="E43" t="n">
-        <v>3.436089813513365</v>
+        <v>3.432027959724457</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.867788195056256</v>
+        <v>-1.866379248648529</v>
       </c>
       <c r="G43" t="n">
-        <v>1.063838716559093</v>
+        <v>1.06441251545882</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1277947854554156</v>
       </c>
       <c r="E44" t="n">
-        <v>3.168206029985801</v>
+        <v>3.163713462010075</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.827214918657994</v>
+        <v>-1.826101631988677</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9305231854263104</v>
+        <v>0.9305888875904014</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.07097880069230751</v>
       </c>
       <c r="E45" t="n">
-        <v>2.910278314390142</v>
+        <v>2.905927371079235</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.743270183695244</v>
+        <v>-1.74297379393279</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8094005159007066</v>
+        <v>0.8101027990324337</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.01084251057384189</v>
       </c>
       <c r="E46" t="n">
-        <v>2.660665572672209</v>
+        <v>2.657081154609028</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.694462236064257</v>
+        <v>-1.694701683951166</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7689206825802629</v>
+        <v>0.7691980917175356</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.04975117266768602</v>
       </c>
       <c r="E47" t="n">
-        <v>2.360952740762835</v>
+        <v>2.3570558724082</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.647663314606361</v>
+        <v>-1.647772818213179</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6617867338136554</v>
+        <v>0.6623970339156552</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.108359981764315</v>
       </c>
       <c r="E48" t="n">
-        <v>2.169041099597614</v>
+        <v>2.165551584660343</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.613442707451643</v>
+        <v>-1.613683615386643</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5995886851409448</v>
+        <v>0.6001829247139446</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.1619695196273517</v>
       </c>
       <c r="E49" t="n">
-        <v>1.971753561361667</v>
+        <v>1.968077160268759</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.564401152126111</v>
+        <v>-1.565045033334201</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5384404110455976</v>
+        <v>0.5391645948986883</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2091620396872728</v>
       </c>
       <c r="E50" t="n">
-        <v>1.858738538884879</v>
+        <v>1.855853483857244</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491246902579221</v>
+        <v>-1.492029488355948</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4772103742571595</v>
+        <v>0.4778761561866138</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2492587067282343</v>
       </c>
       <c r="E51" t="n">
-        <v>1.682129661760472</v>
+        <v>1.679215405771018</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.433072746445055</v>
+        <v>-1.434642298142782</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4195209540891749</v>
+        <v>0.4198334043806294</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2819141158083097</v>
       </c>
       <c r="E52" t="n">
-        <v>1.563546015864959</v>
+        <v>1.560787985021232</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.392924344041248</v>
+        <v>-1.39482386660752</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3384620041781058</v>
+        <v>0.3389511202885602</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3079015896798564</v>
       </c>
       <c r="E53" t="n">
-        <v>1.385620175362552</v>
+        <v>1.383830156403098</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.355697497867348</v>
+        <v>-1.357236388555166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2720487966669418</v>
+        <v>0.2721933414279418</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3279419290991031</v>
       </c>
       <c r="E54" t="n">
-        <v>1.334273204101475</v>
+        <v>1.331461151478385</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.336734393262626</v>
+        <v>-1.338419288759535</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2192081962088651</v>
+        <v>0.2203922952105921</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3437567357390754</v>
       </c>
       <c r="E55" t="n">
-        <v>1.210986743305144</v>
+        <v>1.208893034342781</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.300923793736908</v>
+        <v>-1.302239297066817</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1646797801576979</v>
+        <v>0.1641848238548799</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3565776791033515</v>
       </c>
       <c r="E56" t="n">
-        <v>1.181007575854516</v>
+        <v>1.178804363285335</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.247691900390468</v>
+        <v>-1.249487759542286</v>
       </c>
       <c r="G56" t="n">
-        <v>0.105013454874623</v>
+        <v>0.103895058036987</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3679489918682389</v>
       </c>
       <c r="E57" t="n">
-        <v>1.090537155949449</v>
+        <v>1.087970391405632</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.239866042623198</v>
+        <v>-1.241054521769197</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0618223122493619</v>
+        <v>0.06054185007363497</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3789630681212582</v>
       </c>
       <c r="E58" t="n">
-        <v>1.037134436976373</v>
+        <v>1.034174919496101</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.202247903560935</v>
+        <v>-1.203523985592389</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01512076209343562</v>
+        <v>-0.01653262859734433</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3902975129206494</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9282542706930383</v>
+        <v>0.9254757991760391</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.118131612947503</v>
+        <v>-1.119622322048321</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09146083657468784</v>
+        <v>-0.0930493688975965</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4025749859385419</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9053329757138627</v>
+        <v>0.901154318077682</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.099383135412144</v>
+        <v>-1.100608115760417</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1180702130314989</v>
+        <v>-0.1199843360786802</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4157543234201009</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7723240546801711</v>
+        <v>0.7684198860850813</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.06929738445088</v>
+        <v>-1.070866936148607</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1465309304675821</v>
+        <v>-0.1488217459222179</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.429607774288795</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7325567248280909</v>
+        <v>0.7288087813787283</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.064122974016699</v>
+        <v>-1.065603462780881</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2222884457605618</v>
+        <v>-0.2239733412574705</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4430557637285811</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6417680144392062</v>
+        <v>0.6377587223815709</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.098986002331417</v>
+        <v>-1.100384728402508</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2369706893627397</v>
+        <v>-0.2390965193831028</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4553328907776316</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5536307513834117</v>
+        <v>0.5479351037807768</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.085003121764785</v>
+        <v>-1.086613554809057</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2868941137351808</v>
+        <v>-0.2896798854926346</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4658313433212253</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4692209911037071</v>
+        <v>0.4629165034471633</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.052775480254157</v>
+        <v>-1.05422676805652</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3190677334664449</v>
+        <v>-0.3222944397473531</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4742332702325879</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4201969563552657</v>
+        <v>0.41424288024054</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.068665183627516</v>
+        <v>-1.069979226909334</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3479241239351644</v>
+        <v>-0.3509508036276182</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4801325701047039</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3928049941217276</v>
+        <v>0.385745661602184</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.086936225437148</v>
+        <v>-1.088456135499784</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3804058138136103</v>
+        <v>-0.3844034254865183</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4834776950137714</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3136338863922034</v>
+        <v>0.306443149544478</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.102650723039598</v>
+        <v>-1.10372969857878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3914101962747891</v>
+        <v>-0.39476976693197</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4842062324690031</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2098609683308676</v>
+        <v>0.2020102897460515</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.144409558487678</v>
+        <v>-1.145122061956041</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4140964235113285</v>
+        <v>-0.4180619141262365</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4814441594177946</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1464788206564301</v>
+        <v>0.1386237619273413</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.192382358610665</v>
+        <v>-1.193170784579756</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4314651556007784</v>
+        <v>-0.4349634308265956</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4743817032202626</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09459893184217129</v>
+        <v>0.08791337163390035</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.279830478967551</v>
+        <v>-1.279497588002823</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4925097662816711</v>
+        <v>-0.495517465348943</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4622340396193123</v>
       </c>
       <c r="E72" t="n">
-        <v>0.008752484241012519</v>
+        <v>0.001271197823196346</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.31557975647345</v>
+        <v>-1.315534494982632</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4866286925714908</v>
+        <v>-0.4895137475991264</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4449405869137827</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.00491648598607472</v>
+        <v>-0.01223424701770912</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305866056524634</v>
+        <v>-1.305737572292635</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5366426399255683</v>
+        <v>-0.5394984939913857</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4222739809681547</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02474585102882641</v>
+        <v>0.017796022116101</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346137102968078</v>
+        <v>-1.345967737389533</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5227386019558448</v>
+        <v>-0.524766608754117</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3947241536056417</v>
       </c>
       <c r="E75" t="n">
-        <v>0.03070576733591571</v>
+        <v>0.02329018308219043</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.396886914559974</v>
+        <v>-1.396264934073246</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.473193330038949</v>
+        <v>-0.4755746684752211</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3629693915577289</v>
       </c>
       <c r="E76" t="n">
-        <v>0.08132125450344758</v>
+        <v>0.07477001871954024</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342885575869625</v>
+        <v>-1.342443181298079</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4835319305706735</v>
+        <v>-0.4860169324214001</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3278975734436028</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1945319234244172</v>
+        <v>0.1880171888427826</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.341288283258171</v>
+        <v>-1.340726164743171</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4295189114955971</v>
+        <v>-0.431742564738051</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.290901687330995</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2778743885496675</v>
+        <v>0.2725014115751235</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.307410787404816</v>
+        <v>-1.306803407398998</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4314928965145056</v>
+        <v>-0.4332128331655961</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2531036887386698</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3692047767802794</v>
+        <v>0.364589564764917</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.320467997481812</v>
+        <v>-1.321656476627812</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3997339304410596</v>
+        <v>-0.4013764845433319</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2159795016842643</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4707102401564339</v>
+        <v>0.4671053814199804</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337746206589626</v>
+        <v>-1.337754966878171</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3422328564768023</v>
+        <v>-0.3433746140838929</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1798662619305448</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5682078715230441</v>
+        <v>0.5657593708745903</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286120366143185</v>
+        <v>-1.285952460612731</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2911238730545433</v>
+        <v>-0.2919940617167249</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.145311130865431</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7028783272841898</v>
+        <v>0.7015292428481902</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.219896964883839</v>
+        <v>-1.220720432007112</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2579223794672795</v>
+        <v>-0.2587560669271884</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.112154962225341</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8576302844876936</v>
+        <v>0.8569426018368757</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.164736348009309</v>
+        <v>-1.164842931519945</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2148611811221093</v>
+        <v>-0.2155269630515636</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.08025094261275777</v>
       </c>
       <c r="E84" t="n">
-        <v>1.02618845643883</v>
+        <v>1.026089173168648</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.073381138961151</v>
+        <v>-1.073816233292242</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.166187557915486</v>
+        <v>-0.1657670640653043</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.05007897531878613</v>
       </c>
       <c r="E85" t="n">
-        <v>1.11888106953826</v>
+        <v>1.120181972387259</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.001647516206716</v>
+        <v>-1.002857896074079</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1317859047974952</v>
+        <v>-0.1314062922938589</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.02222148187145587</v>
       </c>
       <c r="E86" t="n">
-        <v>1.282824029474034</v>
+        <v>1.285214128198852</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9253337225911002</v>
+        <v>-0.9264944608233727</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04718049807360883</v>
+        <v>-0.0465555974906999</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.002311290532592723</v>
       </c>
       <c r="E87" t="n">
-        <v>1.38137581556228</v>
+        <v>1.383192115387371</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8251948642280362</v>
+        <v>-0.8262752998153087</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0180379381790712</v>
+        <v>-0.01743055817325318</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.02304445984836432</v>
       </c>
       <c r="E88" t="n">
-        <v>1.468266197548439</v>
+        <v>1.470361366558893</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6985006511875248</v>
+        <v>-0.6988233218156157</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03294110096309693</v>
+        <v>0.03379230900009671</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03883197240706655</v>
       </c>
       <c r="E89" t="n">
-        <v>1.56578134949214</v>
+        <v>1.567908639560594</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.565880102946015</v>
+        <v>-0.5667021100211966</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07890487491299368</v>
+        <v>0.07938377068681174</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.04792507687122789</v>
       </c>
       <c r="E90" t="n">
-        <v>1.62500674025176</v>
+        <v>1.628046560377032</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4382499990792311</v>
+        <v>-0.4384179046096856</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09151531027417212</v>
+        <v>0.09244536090808095</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.04899478439191254</v>
       </c>
       <c r="E91" t="n">
-        <v>1.668294246051022</v>
+        <v>1.671973567240111</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2773906607114561</v>
+        <v>-0.2783878735575467</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1055390721873502</v>
+        <v>0.1066749896020771</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04160354337769889</v>
       </c>
       <c r="E92" t="n">
-        <v>1.697893800998014</v>
+        <v>1.701741027717558</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1193886364575894</v>
+        <v>-0.1193754960247713</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1036118087073507</v>
+        <v>0.1035723874088962</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.02680288168902295</v>
       </c>
       <c r="E93" t="n">
-        <v>1.693928310383106</v>
+        <v>1.697925922056013</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03796220634773195</v>
+        <v>0.03872435145118629</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09909734001026099</v>
+        <v>0.09924480486744276</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.006458031346341173</v>
       </c>
       <c r="E94" t="n">
-        <v>1.642016300510847</v>
+        <v>1.646313222042391</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1469197551798845</v>
+        <v>0.1486017305806113</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06018705838754417</v>
+        <v>0.06023670002263506</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01682640918946882</v>
       </c>
       <c r="E95" t="n">
-        <v>1.551226130073871</v>
+        <v>1.556070569639506</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2313178350748618</v>
+        <v>0.2333093406708613</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01166236008619356</v>
+        <v>0.0116024981144663</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03902127105573235</v>
       </c>
       <c r="E96" t="n">
-        <v>1.42840542461854</v>
+        <v>1.433026476826266</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3104801825158406</v>
+        <v>0.3126571142193855</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02783778096525038</v>
+        <v>-0.02841011981688659</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05542259467679563</v>
       </c>
       <c r="E97" t="n">
-        <v>1.273776111454673</v>
+        <v>1.278664352463035</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3608985631910998</v>
+        <v>0.3625016959949175</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04833977625779033</v>
+        <v>-0.04897489717733561</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06339567420833421</v>
       </c>
       <c r="E98" t="n">
-        <v>1.142228698559981</v>
+        <v>1.146140167395525</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3805099291481854</v>
+        <v>0.3818546334399123</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08531695420814404</v>
+        <v>-0.08617546248559836</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.06295995977068135</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98960257137684</v>
+        <v>0.9925693890975665</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3759385185755503</v>
+        <v>0.3769912132490955</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1257617463744059</v>
+        <v>-0.1265355718625875</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.05875830949561662</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8824832230911416</v>
+        <v>0.8845652516687773</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3459257700188311</v>
+        <v>0.3464440870911036</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.139912532471493</v>
+        <v>-0.14088784459622</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05409198881203222</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7433260395466335</v>
+        <v>0.7444137753743605</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3477201691225579</v>
+        <v>0.3477537502286487</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1327699772107677</v>
+        <v>-0.1334751804386766</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05699997315669979</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6291561190299368</v>
+        <v>0.6307315109200273</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3051305663107511</v>
+        <v>0.3051918883305693</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1947095973713874</v>
+        <v>-0.1946701760729329</v>
       </c>
     </row>
   </sheetData>
